--- a/excel2mysql/excels/game_param.xlsx
+++ b/excel2mysql/excels/game_param.xlsx
@@ -19,17 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>int(11)|PRI|auto_increment</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
     <t>Key</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>服务器key</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
   </si>
   <si>
     <t>Param0</t>
+  </si>
+  <si>
+    <t>double(11,5)||</t>
   </si>
   <si>
     <t>参数1</t>
@@ -454,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,31 +474,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -497,68 +506,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -570,13 +579,13 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -590,7 +599,7 @@
     </row>
     <row r="5" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -602,27 +611,27 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>0.9</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>0.95</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -634,21 +643,53 @@
         <v>31</v>
       </c>
       <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
     </row>
